--- a/risultati_test.xlsx
+++ b/risultati_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco Castelli\Documents\GitHub\esi_defective_detector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE5A0B9-7E41-420A-BF27-E755036D1DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ABBFD7-D28D-428D-A629-E7D7C36341B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>

--- a/risultati_test.xlsx
+++ b/risultati_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco Castelli\Documents\GitHub\esi_defective_detector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ABBFD7-D28D-428D-A629-E7D7C36341B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D79CF6-7BD9-4B68-B552-B401904F0242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="101">
   <si>
     <t>Immagine</t>
   </si>
@@ -365,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +375,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -414,6 +420,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -696,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1264,7 +1272,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -1274,8 +1282,8 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1292,7 +1300,7 @@
       </c>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -1303,17 +1311,17 @@
         <v>98</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1326,11 +1334,12 @@
         <v>97</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -1338,7 +1347,7 @@
         <v>98</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>97</v>
@@ -1346,9 +1355,11 @@
       <c r="E53" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F53" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -1365,8 +1376,9 @@
         <v>97</v>
       </c>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -1384,7 +1396,7 @@
       </c>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
@@ -1402,7 +1414,7 @@
       </c>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -1420,7 +1432,7 @@
       </c>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
@@ -1440,7 +1452,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -1460,7 +1472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
@@ -1478,7 +1490,7 @@
       </c>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
@@ -1496,7 +1508,7 @@
       </c>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
@@ -1514,7 +1526,7 @@
       </c>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
@@ -1534,7 +1546,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>72</v>
       </c>

--- a/risultati_test.xlsx
+++ b/risultati_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco Castelli\Documents\GitHub\esi_defective_detector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D79CF6-7BD9-4B68-B552-B401904F0242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C17E7C-7B2C-4396-A766-9C8AA4F5BFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1360,7 +1360,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">

--- a/risultati_test.xlsx
+++ b/risultati_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco Castelli\Documents\GitHub\esi_defective_detector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C17E7C-7B2C-4396-A766-9C8AA4F5BFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BC59F6-3CB0-4875-A1E6-0E7DBA237097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="85">
   <si>
     <t>Immagine</t>
   </si>
@@ -87,15 +87,6 @@
     <t>img-16</t>
   </si>
   <si>
-    <t>img-17</t>
-  </si>
-  <si>
-    <t>img-18</t>
-  </si>
-  <si>
-    <t>img-19</t>
-  </si>
-  <si>
     <t>img-20</t>
   </si>
   <si>
@@ -108,24 +99,12 @@
     <t>img-23</t>
   </si>
   <si>
-    <t>img-24</t>
-  </si>
-  <si>
-    <t>img-25</t>
-  </si>
-  <si>
     <t>img-26</t>
   </si>
   <si>
     <t>img-27</t>
   </si>
   <si>
-    <t>img-28</t>
-  </si>
-  <si>
-    <t>img-29</t>
-  </si>
-  <si>
     <t>img-30</t>
   </si>
   <si>
@@ -138,9 +117,6 @@
     <t>img-35</t>
   </si>
   <si>
-    <t>img-36</t>
-  </si>
-  <si>
     <t>img-37</t>
   </si>
   <si>
@@ -150,18 +126,6 @@
     <t>img-39</t>
   </si>
   <si>
-    <t>img-42</t>
-  </si>
-  <si>
-    <t>img-43</t>
-  </si>
-  <si>
-    <t>img-44</t>
-  </si>
-  <si>
-    <t>img-45</t>
-  </si>
-  <si>
     <t>img-46</t>
   </si>
   <si>
@@ -195,15 +159,6 @@
     <t>img-56</t>
   </si>
   <si>
-    <t>img-58</t>
-  </si>
-  <si>
-    <t>img-59</t>
-  </si>
-  <si>
-    <t>img-60</t>
-  </si>
-  <si>
     <t>img-61</t>
   </si>
   <si>
@@ -213,9 +168,6 @@
     <t>img-63</t>
   </si>
   <si>
-    <t>img-64</t>
-  </si>
-  <si>
     <t>img-67</t>
   </si>
   <si>
@@ -225,9 +177,6 @@
     <t>img-69</t>
   </si>
   <si>
-    <t>img-70</t>
-  </si>
-  <si>
     <t>img-71</t>
   </si>
   <si>
@@ -237,9 +186,6 @@
     <t>img-73</t>
   </si>
   <si>
-    <t>img-74</t>
-  </si>
-  <si>
     <t>img-75</t>
   </si>
   <si>
@@ -261,9 +207,6 @@
     <t>img-82</t>
   </si>
   <si>
-    <t>img-83</t>
-  </si>
-  <si>
     <t>img-85</t>
   </si>
   <si>
@@ -328,6 +271,15 @@
   </si>
   <si>
     <t>OK?</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>immagine strana</t>
+  </si>
+  <si>
+    <t>togliere</t>
   </si>
 </sst>
 </file>
@@ -385,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -408,11 +360,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -422,6 +385,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -704,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -733,10 +697,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -745,19 +709,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>5</v>
@@ -767,7 +731,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1"/>
@@ -786,11 +750,21 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
@@ -802,11 +776,21 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
@@ -818,33 +802,63 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="J8" s="4" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="K8" s="1"/>
     </row>
@@ -852,109 +866,150 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="J9" s="4" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="J11" s="4" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
+      <c r="A16" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
+      <c r="A17" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -964,18 +1019,18 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -983,9 +1038,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -993,8 +1046,8 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>29</v>
+      <c r="A21" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1004,18 +1057,26 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1023,9 +1084,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1034,27 +1093,41 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>35</v>
+      <c r="A27" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1064,18 +1137,26 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1083,8 +1164,8 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>38</v>
+      <c r="A30" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1094,17 +1175,27 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>40</v>
+      <c r="A32" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1113,9 +1204,7 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1123,9 +1212,7 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1133,9 +1220,7 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1143,9 +1228,7 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1153,8 +1236,8 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>45</v>
+      <c r="A37" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1164,27 +1247,31 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>48</v>
+      <c r="A40" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1194,27 +1281,47 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>51</v>
+      <c r="A43" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1224,58 +1331,94 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1283,384 +1426,377 @@
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="A50" s="5"/>
       <c r="B50" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F50" s="1"/>
+      <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F52" s="1"/>
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="A54" s="5"/>
       <c r="B54" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F54" s="1"/>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F55" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F56" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F57" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F60" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F61" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="A62" s="5"/>
       <c r="B62" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>72</v>
+      <c r="A64" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>73</v>
+      <c r="A65" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F65" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="J65" s="6"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>74</v>
+      <c r="A66" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>75</v>
+      <c r="A67" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F68" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="A70" s="5"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1669,98 +1805,103 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F71" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>81</v>
+      <c r="A73" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/risultati_test.xlsx
+++ b/risultati_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco Castelli\Documents\GitHub\esi_defective_detector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BC59F6-3CB0-4875-A1E6-0E7DBA237097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8542913-C4B4-4C19-9897-B3B6A26A819E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="81">
   <si>
     <t>Immagine</t>
   </si>
@@ -90,9 +90,6 @@
     <t>img-20</t>
   </si>
   <si>
-    <t>img-21</t>
-  </si>
-  <si>
     <t>img-22</t>
   </si>
   <si>
@@ -270,16 +267,7 @@
     <t>Trova la migliore</t>
   </si>
   <si>
-    <t>OK?</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>immagine strana</t>
-  </si>
-  <si>
-    <t>togliere</t>
+    <t>a++</t>
   </si>
 </sst>
 </file>
@@ -317,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,6 +321,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -386,6 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -666,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -697,79 +692,77 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="1"/>
+        <v>79</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="J3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -777,7 +770,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>77</v>
@@ -786,16 +779,16 @@
         <v>77</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -806,210 +799,171 @@
         <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>78</v>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="J7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="J11" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
+      <c r="A13" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" t="s">
-        <v>84</v>
+      <c r="J13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" t="s">
-        <v>84</v>
+      <c r="J14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>21</v>
+      <c r="A16" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
-        <v>22</v>
+      <c r="A17" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1019,18 +973,18 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
+      <c r="A19" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1038,7 +992,9 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1047,7 +1003,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1057,26 +1013,18 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
+      <c r="A23" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1084,7 +1032,9 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
+      <c r="A24" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1093,41 +1043,27 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1137,26 +1073,18 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1165,7 +1093,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1175,27 +1103,17 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
-        <v>32</v>
+      <c r="A32" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1203,41 +1121,50 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
-        <v>33</v>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1245,188 +1172,231 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="5"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>78</v>
       </c>
@@ -1437,34 +1407,35 @@
         <v>78</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="7" t="s">
-        <v>45</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>78</v>
@@ -1476,432 +1447,69 @@
         <v>78</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>46</v>
+        <v>76</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B54" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="5"/>
-      <c r="B62" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J65" s="6"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A66" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" s="5"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/risultati_test.xlsx
+++ b/risultati_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco Castelli\Documents\GitHub\esi_defective_detector\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.LAPTOP-UC7M0S38\Desktop\Scuola\3°\Elaborazione\Laboratorio\esi_defective_detector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8542913-C4B4-4C19-9897-B3B6A26A819E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9904FD-DDB5-4B66-8E2B-35B2B44EF0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="94">
   <si>
     <t>Immagine</t>
   </si>
@@ -268,6 +268,45 @@
   </si>
   <si>
     <t>a++</t>
+  </si>
+  <si>
+    <t>Ma ce li ha i difetti? In scala di</t>
+  </si>
+  <si>
+    <t>grigi non si vedono</t>
+  </si>
+  <si>
+    <t>a--</t>
+  </si>
+  <si>
+    <t>l'ha un po preso ma ci sono tanti rossi esterni a caso</t>
+  </si>
+  <si>
+    <t>f/a--</t>
+  </si>
+  <si>
+    <t>a---(quel poco che ha preso era giusto)</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>t-</t>
+  </si>
+  <si>
+    <t>t+</t>
+  </si>
+  <si>
+    <t>a---</t>
+  </si>
+  <si>
+    <t>Trova qualcosina ma poco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In conclusione deduciamo che il nostro rilevatore non è sufficientemente sensibile per immagini che presentano difetti nella colorazione (in scala di grigi sono difficilmente rilevabili anche dall'uomo) </t>
+  </si>
+  <si>
+    <t>Riesce a catturare difetti verticali e orizzontali, a volte completamente ma a volte parzialmente rendendo il software utile solo come eventuale campanello d'allarme nel caso venisse superata una certa soglia di zone difettose rilevate</t>
   </si>
 </sst>
 </file>
@@ -661,21 +700,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -695,7 +734,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -715,7 +754,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -739,7 +778,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -765,7 +804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -791,7 +830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -817,15 +856,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
@@ -833,17 +882,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -863,29 +922,49 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="J10" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="J11" s="4" t="s">
         <v>68</v>
       </c>
@@ -893,15 +972,25 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="J12" s="4" t="s">
         <v>67</v>
       </c>
@@ -909,15 +998,28 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="J13" s="4" t="s">
         <v>72</v>
       </c>
@@ -925,15 +1027,28 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
       <c r="J14" s="4" t="s">
         <v>73</v>
       </c>
@@ -941,258 +1056,511 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -1212,7 +1580,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -1232,7 +1600,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>50</v>
       </c>
@@ -1252,7 +1620,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -1272,7 +1640,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -1292,7 +1660,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>53</v>
       </c>
@@ -1312,7 +1680,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>54</v>
       </c>
@@ -1333,7 +1701,7 @@
       </c>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>55</v>
       </c>
@@ -1353,7 +1721,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>56</v>
       </c>
@@ -1373,7 +1741,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -1393,7 +1761,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -1413,7 +1781,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -1433,7 +1801,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -1453,7 +1821,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>61</v>
       </c>
@@ -1471,7 +1839,7 @@
       </c>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -1492,7 +1860,7 @@
       </c>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -1510,6 +1878,16 @@
       </c>
       <c r="F55" s="1" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
